--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N2">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q2">
-        <v>4.200613583472444</v>
+        <v>199.6708686954222</v>
       </c>
       <c r="R2">
-        <v>37.805522251252</v>
+        <v>1797.0378182588</v>
       </c>
       <c r="S2">
-        <v>4.374313404665913E-05</v>
+        <v>0.001658064650209323</v>
       </c>
       <c r="T2">
-        <v>4.374313404665915E-05</v>
+        <v>0.001658064650209323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N3">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q3">
-        <v>6506.346653487056</v>
+        <v>17440.86111875293</v>
       </c>
       <c r="R3">
-        <v>58557.1198813835</v>
+        <v>156967.7500687764</v>
       </c>
       <c r="S3">
-        <v>0.06775390979482684</v>
+        <v>0.1448287147702356</v>
       </c>
       <c r="T3">
-        <v>0.06775390979482686</v>
+        <v>0.1448287147702356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N4">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O4">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P4">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q4">
-        <v>1168.285125362191</v>
+        <v>2065.330188476533</v>
       </c>
       <c r="R4">
-        <v>10514.56612825972</v>
+        <v>18587.9716962888</v>
       </c>
       <c r="S4">
-        <v>0.0121659495280665</v>
+        <v>0.01715047867972545</v>
       </c>
       <c r="T4">
-        <v>0.0121659495280665</v>
+        <v>0.01715047867972545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N5">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q5">
-        <v>6809.541047944138</v>
+        <v>9449.551493865598</v>
       </c>
       <c r="R5">
-        <v>61285.86943149725</v>
+        <v>85045.9634447904</v>
       </c>
       <c r="S5">
-        <v>0.07091122783310452</v>
+        <v>0.07846896943294794</v>
       </c>
       <c r="T5">
-        <v>0.07091122783310455</v>
+        <v>0.07846896943294795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J6">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N6">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q6">
-        <v>3.035459828361333</v>
+        <v>72.92659542367367</v>
       </c>
       <c r="R6">
-        <v>27.319138455252</v>
+        <v>656.3393588130631</v>
       </c>
       <c r="S6">
-        <v>3.160979307587142E-05</v>
+        <v>0.0006055816290184875</v>
       </c>
       <c r="T6">
-        <v>3.160979307587143E-05</v>
+        <v>0.0006055816290184875</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J7">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N7">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q7">
-        <v>4701.635488148612</v>
+        <v>6369.995938606021</v>
       </c>
       <c r="R7">
-        <v>42314.7193933375</v>
+        <v>57329.96344745419</v>
       </c>
       <c r="S7">
-        <v>0.04896053095809914</v>
+        <v>0.05289637470296511</v>
       </c>
       <c r="T7">
-        <v>0.04896053095809914</v>
+        <v>0.05289637470296511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N8">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O8">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P8">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q8">
-        <v>844.2296573200804</v>
+        <v>754.3288615680821</v>
       </c>
       <c r="R8">
-        <v>7598.066915880723</v>
+        <v>6788.959754112738</v>
       </c>
       <c r="S8">
-        <v>0.008791394479039358</v>
+        <v>0.006263938391065625</v>
       </c>
       <c r="T8">
-        <v>0.00879139447903936</v>
+        <v>0.006263938391065625</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N9">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q9">
-        <v>4920.730719421472</v>
+        <v>3451.297744286856</v>
       </c>
       <c r="R9">
-        <v>44286.57647479325</v>
+        <v>31061.6796985817</v>
       </c>
       <c r="S9">
-        <v>0.05124208146973414</v>
+        <v>0.02865953769089004</v>
       </c>
       <c r="T9">
-        <v>0.05124208146973416</v>
+        <v>0.02865953769089005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H10">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I10">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J10">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N10">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q10">
-        <v>5.371744514332001</v>
+        <v>164.5915461846834</v>
       </c>
       <c r="R10">
-        <v>48.34570062898801</v>
+        <v>1481.323915662151</v>
       </c>
       <c r="S10">
-        <v>5.593871840041674E-05</v>
+        <v>0.001366766350220099</v>
       </c>
       <c r="T10">
-        <v>5.593871840041676E-05</v>
+        <v>0.001366766350220099</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H11">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I11">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J11">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N11">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q11">
-        <v>8320.315889499085</v>
+        <v>14376.75068518238</v>
       </c>
       <c r="R11">
-        <v>74882.84300549176</v>
+        <v>129390.7561666414</v>
       </c>
       <c r="S11">
-        <v>0.0866436976485804</v>
+        <v>0.119384376157222</v>
       </c>
       <c r="T11">
-        <v>0.08664369764858042</v>
+        <v>0.119384376157222</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H12">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I12">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J12">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N12">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O12">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P12">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q12">
-        <v>1494.002980429393</v>
+        <v>1702.481144717181</v>
       </c>
       <c r="R12">
-        <v>13446.02682386454</v>
+        <v>15322.33030245463</v>
       </c>
       <c r="S12">
-        <v>0.01555781586198833</v>
+        <v>0.01413738429720258</v>
       </c>
       <c r="T12">
-        <v>0.01555781586198833</v>
+        <v>0.01413738429720258</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H13">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I13">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J13">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N13">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O13">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P13">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q13">
-        <v>8708.04087129917</v>
+        <v>7789.40013277351</v>
       </c>
       <c r="R13">
-        <v>78372.36784169252</v>
+        <v>70104.60119496159</v>
       </c>
       <c r="S13">
-        <v>0.0906812758535481</v>
+        <v>0.06468309118336434</v>
       </c>
       <c r="T13">
-        <v>0.09068127585354813</v>
+        <v>0.06468309118336434</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H14">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I14">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J14">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N14">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O14">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P14">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q14">
-        <v>1.790262576738222</v>
+        <v>26.94371734734611</v>
       </c>
       <c r="R14">
-        <v>16.112363190644</v>
+        <v>242.493456126115</v>
       </c>
       <c r="S14">
-        <v>1.864291830629204E-05</v>
+        <v>0.0002237403261214465</v>
       </c>
       <c r="T14">
-        <v>1.864291830629204E-05</v>
+        <v>0.0002237403261214465</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H15">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I15">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J15">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N15">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O15">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P15">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q15">
-        <v>2772.944640957655</v>
+        <v>2353.481183050371</v>
       </c>
       <c r="R15">
-        <v>24956.50176861889</v>
+        <v>21181.33064745334</v>
       </c>
       <c r="S15">
-        <v>0.02887608839114051</v>
+        <v>0.01954328130109499</v>
       </c>
       <c r="T15">
-        <v>0.02887608839114051</v>
+        <v>0.01954328130109499</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H16">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I16">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J16">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N16">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O16">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P16">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q16">
-        <v>497.9122924148813</v>
+        <v>278.6970036782766</v>
       </c>
       <c r="R16">
-        <v>4481.210631733931</v>
+        <v>2508.27303310449</v>
       </c>
       <c r="S16">
-        <v>0.00518501493121841</v>
+        <v>0.002314296787194789</v>
       </c>
       <c r="T16">
-        <v>0.00518501493121841</v>
+        <v>0.002314296787194789</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H17">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I17">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J17">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N17">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O17">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P17">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q17">
-        <v>2902.163281779318</v>
+        <v>1275.12864632388</v>
       </c>
       <c r="R17">
-        <v>26119.46953601386</v>
+        <v>11476.15781691492</v>
       </c>
       <c r="S17">
-        <v>0.03022170807609055</v>
+        <v>0.01058865395213941</v>
       </c>
       <c r="T17">
-        <v>0.03022170807609056</v>
+        <v>0.01058865395213941</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H18">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I18">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J18">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N18">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O18">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P18">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q18">
-        <v>7.805439274428444</v>
+        <v>217.4864018367567</v>
       </c>
       <c r="R18">
-        <v>70.24895346985599</v>
+        <v>1957.37761653081</v>
       </c>
       <c r="S18">
-        <v>8.128202456369098E-05</v>
+        <v>0.001806004637245382</v>
       </c>
       <c r="T18">
-        <v>8.128202456369099E-05</v>
+        <v>0.001806004637245382</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H19">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I19">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J19">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N19">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O19">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P19">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q19">
-        <v>12089.87513204976</v>
+        <v>18997.01320696027</v>
       </c>
       <c r="R19">
-        <v>108808.8761884479</v>
+        <v>170973.1188626424</v>
       </c>
       <c r="S19">
-        <v>0.1258980427500902</v>
+        <v>0.1577509842262865</v>
       </c>
       <c r="T19">
-        <v>0.1258980427500903</v>
+        <v>0.1577509842262865</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H20">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I20">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J20">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N20">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O20">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P20">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q20">
-        <v>2170.86823627666</v>
+        <v>2249.60823895534</v>
       </c>
       <c r="R20">
-        <v>19537.81412648994</v>
+        <v>20246.47415059806</v>
       </c>
       <c r="S20">
-        <v>0.02260635937347637</v>
+        <v>0.01868072154041274</v>
       </c>
       <c r="T20">
-        <v>0.02260635937347637</v>
+        <v>0.01868072154041274</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H21">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I21">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J21">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N21">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O21">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P21">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q21">
-        <v>12653.26078684868</v>
+        <v>10292.68298775672</v>
       </c>
       <c r="R21">
-        <v>113879.3470816381</v>
+        <v>92634.14688981046</v>
       </c>
       <c r="S21">
-        <v>0.1317648652340241</v>
+        <v>0.08547032388506635</v>
       </c>
       <c r="T21">
-        <v>0.1317648652340241</v>
+        <v>0.08547032388506637</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H22">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I22">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J22">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N22">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O22">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P22">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q22">
-        <v>5.638192292183111</v>
+        <v>143.1050865305132</v>
       </c>
       <c r="R22">
-        <v>50.743730629648</v>
+        <v>1287.945778774619</v>
       </c>
       <c r="S22">
-        <v>5.871337515742812E-05</v>
+        <v>0.001188343030666798</v>
       </c>
       <c r="T22">
-        <v>5.871337515742813E-05</v>
+        <v>0.001188343030666798</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H23">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I23">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J23">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N23">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O23">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P23">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q23">
-        <v>8733.017884886516</v>
+        <v>12499.95032261321</v>
       </c>
       <c r="R23">
-        <v>78597.16096397865</v>
+        <v>112499.5529035188</v>
       </c>
       <c r="S23">
-        <v>0.09094137424910996</v>
+        <v>0.103799447033571</v>
       </c>
       <c r="T23">
-        <v>0.09094137424910997</v>
+        <v>0.103799447033571</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H24">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I24">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J24">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N24">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O24">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P24">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q24">
-        <v>1568.108100875139</v>
+        <v>1480.2322305056</v>
       </c>
       <c r="R24">
-        <v>14112.97290787625</v>
+        <v>13322.09007455039</v>
       </c>
       <c r="S24">
-        <v>0.01632951031871158</v>
+        <v>0.01229183181070671</v>
       </c>
       <c r="T24">
-        <v>0.01632951031871158</v>
+        <v>0.01229183181070671</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H25">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I25">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J25">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N25">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O25">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P25">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q25">
-        <v>9139.974693431594</v>
+        <v>6772.539695146727</v>
       </c>
       <c r="R25">
-        <v>82259.77224088435</v>
+        <v>60952.85725632054</v>
       </c>
       <c r="S25">
-        <v>0.09517922328560055</v>
+        <v>0.05623909353442735</v>
       </c>
       <c r="T25">
-        <v>0.09517922328560056</v>
+        <v>0.05623909353442735</v>
       </c>
     </row>
   </sheetData>
